--- a/data/EXP 2/PCR_plating_round_1_june1st.xlsx
+++ b/data/EXP 2/PCR_plating_round_1_june1st.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88EE9C59-BEE5-E742-A011-55B195941FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56014305-B737-3A4F-97A1-E5A1EB40B46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{0E7068ED-B36B-F344-95B5-A97F97BA2DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/EXP 2/PCR_plating_round_1_june1st.xlsx
+++ b/data/EXP 2/PCR_plating_round_1_june1st.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56014305-B737-3A4F-97A1-E5A1EB40B46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A97BF17-9565-FE48-A2F4-552EAE091218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{0E7068ED-B36B-F344-95B5-A97F97BA2DDF}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{0E7068ED-B36B-F344-95B5-A97F97BA2DDF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="round 1" sheetId="1" r:id="rId1"/>
+    <sheet name="round 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
   <si>
     <t>A</t>
   </si>
@@ -65,6 +66,51 @@
   </si>
   <si>
     <t>HSC70</t>
+  </si>
+  <si>
+    <t>62a</t>
+  </si>
+  <si>
+    <t>65a</t>
+  </si>
+  <si>
+    <t>66a</t>
+  </si>
+  <si>
+    <t>67a</t>
+  </si>
+  <si>
+    <t>69a</t>
+  </si>
+  <si>
+    <t>85a</t>
+  </si>
+  <si>
+    <t>86a</t>
+  </si>
+  <si>
+    <t>87a</t>
+  </si>
+  <si>
+    <t>88a</t>
+  </si>
+  <si>
+    <t>89a</t>
+  </si>
+  <si>
+    <t>97a</t>
+  </si>
+  <si>
+    <t>98a</t>
+  </si>
+  <si>
+    <t>99a</t>
+  </si>
+  <si>
+    <t>100a</t>
+  </si>
+  <si>
+    <t>WATER</t>
   </si>
 </sst>
 </file>
@@ -80,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,6 +136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -106,9 +158,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83341E51-E4CB-8F41-86AA-C491C85B0630}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,4 +813,296 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9187D996-2FA2-AD45-B2B5-F1C2033382DE}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/EXP 2/PCR_plating_round_1_june1st.xlsx
+++ b/data/EXP 2/PCR_plating_round_1_june1st.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A97BF17-9565-FE48-A2F4-552EAE091218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A79BD7-ECF0-9045-B0E3-D310967C9CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{0E7068ED-B36B-F344-95B5-A97F97BA2DDF}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="B2" sqref="B2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
